--- a/results/satisfaction_util-algo=mallows_costs-dist=betavariate_voters=10_projects=15/run_no=0.xlsx
+++ b/results/satisfaction_util-algo=mallows_costs-dist=betavariate_voters=10_projects=15/run_no=0.xlsx
@@ -509,43 +509,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C2" t="n">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="D2" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="E2" t="n">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="F2" t="n">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="G2" t="n">
-        <v>503</v>
+        <v>425</v>
       </c>
       <c r="H2" t="n">
-        <v>643</v>
+        <v>471</v>
       </c>
       <c r="I2" t="n">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="L2" t="n">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="M2" t="n">
-        <v>4972</v>
+        <v>4261</v>
       </c>
       <c r="N2" t="n">
-        <v>643</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
@@ -555,43 +555,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C3" t="n">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="D3" t="n">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="E3" t="n">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="F3" t="n">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="G3" t="n">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="H3" t="n">
-        <v>619</v>
+        <v>478</v>
       </c>
       <c r="I3" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="L3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M3" t="n">
-        <v>4400</v>
+        <v>4287</v>
       </c>
       <c r="N3" t="n">
-        <v>619</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4">
@@ -601,43 +601,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="C4" t="n">
-        <v>627</v>
+        <v>475</v>
       </c>
       <c r="D4" t="n">
-        <v>604</v>
+        <v>508</v>
       </c>
       <c r="E4" t="n">
-        <v>564</v>
+        <v>445</v>
       </c>
       <c r="F4" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="G4" t="n">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="H4" t="n">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="I4" t="n">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="J4" t="n">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="L4" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M4" t="n">
-        <v>5174</v>
+        <v>4684</v>
       </c>
       <c r="N4" t="n">
-        <v>627</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -647,43 +647,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>400</v>
+      </c>
+      <c r="C5" t="n">
+        <v>495</v>
+      </c>
+      <c r="D5" t="n">
+        <v>521</v>
+      </c>
+      <c r="E5" t="n">
         <v>458</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
+        <v>513</v>
+      </c>
+      <c r="G5" t="n">
+        <v>499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>637</v>
+      </c>
+      <c r="I5" t="n">
+        <v>541</v>
+      </c>
+      <c r="J5" t="n">
+        <v>531</v>
+      </c>
+      <c r="K5" t="n">
         <v>559</v>
       </c>
-      <c r="D5" t="n">
-        <v>569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>528</v>
-      </c>
-      <c r="F5" t="n">
-        <v>540</v>
-      </c>
-      <c r="G5" t="n">
-        <v>521</v>
-      </c>
-      <c r="H5" t="n">
-        <v>663</v>
-      </c>
-      <c r="I5" t="n">
-        <v>462</v>
-      </c>
-      <c r="J5" t="n">
-        <v>388</v>
-      </c>
-      <c r="K5" t="n">
-        <v>500</v>
-      </c>
       <c r="L5" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M5" t="n">
-        <v>5188</v>
+        <v>5154</v>
       </c>
       <c r="N5" t="n">
-        <v>663</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6">
@@ -693,43 +693,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>627</v>
+        <v>436</v>
       </c>
       <c r="D6" t="n">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="E6" t="n">
-        <v>564</v>
+        <v>389</v>
       </c>
       <c r="F6" t="n">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="G6" t="n">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H6" t="n">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="I6" t="n">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="J6" t="n">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="K6" t="n">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="L6" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M6" t="n">
-        <v>5174</v>
+        <v>4599</v>
       </c>
       <c r="N6" t="n">
-        <v>627</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
@@ -739,43 +739,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="C7" t="n">
-        <v>627</v>
+        <v>475</v>
       </c>
       <c r="D7" t="n">
-        <v>604</v>
+        <v>508</v>
       </c>
       <c r="E7" t="n">
-        <v>564</v>
+        <v>445</v>
       </c>
       <c r="F7" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="G7" t="n">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="H7" t="n">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="I7" t="n">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="L7" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M7" t="n">
-        <v>5174</v>
+        <v>4684</v>
       </c>
       <c r="N7" t="n">
-        <v>627</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -785,43 +785,43 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>400</v>
+      </c>
+      <c r="C8" t="n">
+        <v>495</v>
+      </c>
+      <c r="D8" t="n">
+        <v>521</v>
+      </c>
+      <c r="E8" t="n">
         <v>458</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
+        <v>513</v>
+      </c>
+      <c r="G8" t="n">
+        <v>499</v>
+      </c>
+      <c r="H8" t="n">
+        <v>637</v>
+      </c>
+      <c r="I8" t="n">
+        <v>541</v>
+      </c>
+      <c r="J8" t="n">
+        <v>531</v>
+      </c>
+      <c r="K8" t="n">
         <v>559</v>
       </c>
-      <c r="D8" t="n">
-        <v>569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>528</v>
-      </c>
-      <c r="F8" t="n">
-        <v>540</v>
-      </c>
-      <c r="G8" t="n">
-        <v>521</v>
-      </c>
-      <c r="H8" t="n">
-        <v>663</v>
-      </c>
-      <c r="I8" t="n">
-        <v>462</v>
-      </c>
-      <c r="J8" t="n">
-        <v>388</v>
-      </c>
-      <c r="K8" t="n">
-        <v>500</v>
-      </c>
       <c r="L8" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M8" t="n">
-        <v>5188</v>
+        <v>5154</v>
       </c>
       <c r="N8" t="n">
-        <v>663</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9">
@@ -831,43 +831,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="C9" t="n">
-        <v>627</v>
+        <v>436</v>
       </c>
       <c r="D9" t="n">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="E9" t="n">
-        <v>564</v>
+        <v>389</v>
       </c>
       <c r="F9" t="n">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="G9" t="n">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H9" t="n">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="I9" t="n">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="J9" t="n">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="K9" t="n">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="L9" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M9" t="n">
-        <v>5174</v>
+        <v>4599</v>
       </c>
       <c r="N9" t="n">
-        <v>627</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -877,43 +877,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C10" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D10" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E10" t="n">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="F10" t="n">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="G10" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H10" t="n">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="I10" t="n">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="K10" t="n">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="L10" t="n">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M10" t="n">
-        <v>4496</v>
+        <v>4656</v>
       </c>
       <c r="N10" t="n">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11">
@@ -923,43 +923,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="C11" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D11" t="n">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="E11" t="n">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="F11" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G11" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H11" t="n">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="I11" t="n">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="J11" t="n">
-        <v>269</v>
+        <v>481</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="L11" t="n">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="M11" t="n">
-        <v>3854</v>
+        <v>4046</v>
       </c>
       <c r="N11" t="n">
-        <v>514</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
@@ -969,43 +969,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C12" t="n">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="D12" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E12" t="n">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="F12" t="n">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="G12" t="n">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="H12" t="n">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="I12" t="n">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="J12" t="n">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="K12" t="n">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="L12" t="n">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="M12" t="n">
-        <v>5174</v>
+        <v>5135</v>
       </c>
       <c r="N12" t="n">
-        <v>627</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13">
@@ -1015,43 +1015,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C13" t="n">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="D13" t="n">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="E13" t="n">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F13" t="n">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="G13" t="n">
-        <v>503</v>
+        <v>292</v>
       </c>
       <c r="H13" t="n">
-        <v>643</v>
+        <v>393</v>
       </c>
       <c r="I13" t="n">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="J13" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="K13" t="n">
-        <v>525</v>
+        <v>342</v>
       </c>
       <c r="L13" t="n">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="M13" t="n">
-        <v>4972</v>
+        <v>3915</v>
       </c>
       <c r="N13" t="n">
-        <v>643</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
@@ -1061,43 +1061,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="C14" t="n">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="D14" t="n">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="E14" t="n">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="F14" t="n">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="G14" t="n">
-        <v>504</v>
+        <v>326</v>
       </c>
       <c r="H14" t="n">
-        <v>641</v>
+        <v>422</v>
       </c>
       <c r="I14" t="n">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="J14" t="n">
+        <v>384</v>
+      </c>
+      <c r="K14" t="n">
+        <v>368</v>
+      </c>
+      <c r="L14" t="n">
+        <v>319</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3791</v>
+      </c>
+      <c r="N14" t="n">
         <v>422</v>
-      </c>
-      <c r="K14" t="n">
-        <v>517</v>
-      </c>
-      <c r="L14" t="n">
-        <v>382</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4830</v>
-      </c>
-      <c r="N14" t="n">
-        <v>641</v>
       </c>
     </row>
     <row r="15">
@@ -1107,43 +1107,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="C15" t="n">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="D15" t="n">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="E15" t="n">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="F15" t="n">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="G15" t="n">
-        <v>504</v>
+        <v>326</v>
       </c>
       <c r="H15" t="n">
-        <v>641</v>
+        <v>422</v>
       </c>
       <c r="I15" t="n">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="J15" t="n">
+        <v>384</v>
+      </c>
+      <c r="K15" t="n">
+        <v>368</v>
+      </c>
+      <c r="L15" t="n">
+        <v>319</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3791</v>
+      </c>
+      <c r="N15" t="n">
         <v>422</v>
-      </c>
-      <c r="K15" t="n">
-        <v>517</v>
-      </c>
-      <c r="L15" t="n">
-        <v>382</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4830</v>
-      </c>
-      <c r="N15" t="n">
-        <v>641</v>
       </c>
     </row>
     <row r="16">
@@ -1153,43 +1153,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="C16" t="n">
-        <v>573</v>
+        <v>469</v>
       </c>
       <c r="D16" t="n">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="E16" t="n">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="F16" t="n">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="G16" t="n">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="H16" t="n">
-        <v>627</v>
+        <v>393</v>
       </c>
       <c r="I16" t="n">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="J16" t="n">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="K16" t="n">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="L16" t="n">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="M16" t="n">
-        <v>5063</v>
+        <v>3915</v>
       </c>
       <c r="N16" t="n">
-        <v>627</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17">
@@ -1199,43 +1199,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="C17" t="n">
-        <v>573</v>
+        <v>469</v>
       </c>
       <c r="D17" t="n">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="E17" t="n">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="F17" t="n">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="G17" t="n">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="H17" t="n">
-        <v>627</v>
+        <v>393</v>
       </c>
       <c r="I17" t="n">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="J17" t="n">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="K17" t="n">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="L17" t="n">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="M17" t="n">
-        <v>5063</v>
+        <v>3915</v>
       </c>
       <c r="N17" t="n">
-        <v>627</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -1331,43 +1331,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E2" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F2" t="n">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="G2" t="n">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="H2" t="n">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="I2" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="M2" t="n">
-        <v>2231</v>
+        <v>1925</v>
       </c>
       <c r="N2" t="n">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -1377,43 +1377,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="G3" t="n">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="H3" t="n">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I3" t="n">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="J3" t="n">
-        <v>172</v>
+        <v>-6</v>
       </c>
       <c r="K3" t="n">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="M3" t="n">
-        <v>1087</v>
+        <v>1977</v>
       </c>
       <c r="N3" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C4" t="n">
-        <v>459</v>
+        <v>274</v>
       </c>
       <c r="D4" t="n">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="E4" t="n">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="F4" t="n">
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="G4" t="n">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="H4" t="n">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="I4" t="n">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="J4" t="n">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="K4" t="n">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="M4" t="n">
-        <v>2635</v>
+        <v>2771</v>
       </c>
       <c r="N4" t="n">
-        <v>459</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
@@ -1469,43 +1469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C5" t="n">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D5" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F5" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G5" t="n">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="H5" t="n">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="I5" t="n">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="J5" t="n">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="M5" t="n">
-        <v>2663</v>
+        <v>3711</v>
       </c>
       <c r="N5" t="n">
-        <v>331</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6">
@@ -1515,43 +1515,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
-        <v>459</v>
+        <v>196</v>
       </c>
       <c r="D6" t="n">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="E6" t="n">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="F6" t="n">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="H6" t="n">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I6" t="n">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="J6" t="n">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="K6" t="n">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="M6" t="n">
-        <v>2635</v>
+        <v>2601</v>
       </c>
       <c r="N6" t="n">
-        <v>459</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
@@ -1561,43 +1561,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C7" t="n">
-        <v>459</v>
+        <v>274</v>
       </c>
       <c r="D7" t="n">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="E7" t="n">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="F7" t="n">
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="G7" t="n">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="H7" t="n">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="I7" t="n">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="J7" t="n">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="K7" t="n">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="M7" t="n">
-        <v>2635</v>
+        <v>2771</v>
       </c>
       <c r="N7" t="n">
-        <v>459</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
@@ -1607,43 +1607,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C8" t="n">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D8" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E8" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F8" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G8" t="n">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="H8" t="n">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="I8" t="n">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="J8" t="n">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="M8" t="n">
-        <v>2663</v>
+        <v>3711</v>
       </c>
       <c r="N8" t="n">
-        <v>331</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9">
@@ -1653,43 +1653,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
-        <v>459</v>
+        <v>196</v>
       </c>
       <c r="D9" t="n">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="E9" t="n">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="F9" t="n">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="G9" t="n">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="H9" t="n">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I9" t="n">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="J9" t="n">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="K9" t="n">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="L9" t="n">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="M9" t="n">
-        <v>2635</v>
+        <v>2601</v>
       </c>
       <c r="N9" t="n">
-        <v>459</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10">
@@ -1699,43 +1699,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D10" t="n">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="E10" t="n">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="G10" t="n">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="H10" t="n">
-        <v>204</v>
+        <v>435</v>
       </c>
       <c r="I10" t="n">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="J10" t="n">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K10" t="n">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="M10" t="n">
-        <v>1279</v>
+        <v>2715</v>
       </c>
       <c r="N10" t="n">
-        <v>204</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11">
@@ -1745,43 +1745,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>-35</v>
+        <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>-3</v>
+        <v>78</v>
       </c>
       <c r="G11" t="n">
-        <v>-46</v>
+        <v>171</v>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>403</v>
       </c>
       <c r="I11" t="n">
-        <v>-25</v>
+        <v>173</v>
       </c>
       <c r="J11" t="n">
-        <v>-64</v>
+        <v>252</v>
       </c>
       <c r="K11" t="n">
-        <v>-74</v>
+        <v>161</v>
       </c>
       <c r="L11" t="n">
-        <v>-74</v>
+        <v>54</v>
       </c>
       <c r="M11" t="n">
-        <v>-5</v>
+        <v>1495</v>
       </c>
       <c r="N11" t="n">
-        <v>103</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
@@ -1791,43 +1791,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="C12" t="n">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D12" t="n">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="E12" t="n">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="F12" t="n">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G12" t="n">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="H12" t="n">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="I12" t="n">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="J12" t="n">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="K12" t="n">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="L12" t="n">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="M12" t="n">
-        <v>2635</v>
+        <v>3673</v>
       </c>
       <c r="N12" t="n">
-        <v>459</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -1837,43 +1837,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C13" t="n">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D13" t="n">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="E13" t="n">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="F13" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="G13" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="I13" t="n">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>226</v>
+        <v>-60</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>111</v>
+        <v>-60</v>
       </c>
       <c r="M13" t="n">
-        <v>2231</v>
+        <v>1233</v>
       </c>
       <c r="N13" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
@@ -1883,43 +1883,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C14" t="n">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D14" t="n">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F14" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="G14" t="n">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="H14" t="n">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="I14" t="n">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="J14" t="n">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="K14" t="n">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="L14" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M14" t="n">
-        <v>1947</v>
+        <v>985</v>
       </c>
       <c r="N14" t="n">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -1929,43 +1929,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C15" t="n">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E15" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F15" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="G15" t="n">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="H15" t="n">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="I15" t="n">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="J15" t="n">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="K15" t="n">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M15" t="n">
-        <v>1947</v>
+        <v>985</v>
       </c>
       <c r="N15" t="n">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -1975,43 +1975,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C16" t="n">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="D16" t="n">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="E16" t="n">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F16" t="n">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="G16" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="I16" t="n">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>212</v>
+        <v>-60</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>174</v>
+        <v>-60</v>
       </c>
       <c r="M16" t="n">
-        <v>2413</v>
+        <v>1233</v>
       </c>
       <c r="N16" t="n">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
@@ -2021,43 +2021,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="E17" t="n">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F17" t="n">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="G17" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>212</v>
+        <v>-60</v>
       </c>
       <c r="K17" t="n">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>174</v>
+        <v>-60</v>
       </c>
       <c r="M17" t="n">
-        <v>2413</v>
+        <v>1233</v>
       </c>
       <c r="N17" t="n">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
